--- a/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="4575" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ConsulCreate" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="BlindDelete" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L13"/>
+  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
@@ -524,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,6 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -665,6 +666,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -870,6 +872,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -952,6 +955,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -985,6 +989,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1017,10 +1022,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,6 +1143,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1271,9 +1278,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ConsulCreate" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="BlindDelete" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
+  <oleSize ref="A1:N13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
   <si>
     <t>Query</t>
   </si>
@@ -203,6 +203,24 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>TwitterPost</t>
+  </si>
+  <si>
+    <t>IndoChatSkill</t>
+  </si>
+  <si>
+    <t>80001</t>
+  </si>
+  <si>
+    <t>80002</t>
+  </si>
+  <si>
+    <t>Testt</t>
+  </si>
+  <si>
+    <t>80003</t>
   </si>
 </sst>
 </file>
@@ -524,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1023,10 +1041,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,6 +1152,30 @@
       </c>
       <c r="B9" s="4" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1323,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ConsulCreate" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="BlindDelete" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N13"/>
+  <oleSize ref="A1:F10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="67">
   <si>
     <t>Query</t>
   </si>
@@ -124,6 +124,75 @@
   </si>
   <si>
     <t>Delete</t>
+  </si>
+  <si>
+    <t>Skill Name</t>
+  </si>
+  <si>
+    <t>VDN</t>
+  </si>
+  <si>
+    <t>90001</t>
+  </si>
+  <si>
+    <t>Please Provide Skill Name, Skill Id</t>
+  </si>
+  <si>
+    <t>Please Provide VDN</t>
+  </si>
+  <si>
+    <t>VoiceSkill1</t>
+  </si>
+  <si>
+    <t>Exp Err Msg 2</t>
+  </si>
+  <si>
+    <t>Duplicate SkillName</t>
+  </si>
+  <si>
+    <t>Duplicate SkillId</t>
+  </si>
+  <si>
+    <t>90002</t>
+  </si>
+  <si>
+    <t>Update Skill Name</t>
+  </si>
+  <si>
+    <t>Update VDN</t>
+  </si>
+  <si>
+    <t>90009</t>
+  </si>
+  <si>
+    <t>Inc Agt Ext</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>TwitterPost</t>
+  </si>
+  <si>
+    <t>IndoChatSkill</t>
+  </si>
+  <si>
+    <t>80001</t>
+  </si>
+  <si>
+    <t>80002</t>
+  </si>
+  <si>
+    <t>Testt</t>
+  </si>
+  <si>
+    <t>80003</t>
   </si>
   <si>
     <t>SELECT Type,
@@ -131,96 +200,39 @@
   LAST_CHANGED_ON as 'Last Changed On',
   LAST_CHANGED_BY as 'Last Changed By',
   Name
-  FROM [Product_OCM].[dbo].[AGT_SPEED_DIAL]</t>
-  </si>
-  <si>
-    <t>Skill Name</t>
-  </si>
-  <si>
-    <t>VDN</t>
-  </si>
-  <si>
-    <t>90001</t>
-  </si>
-  <si>
-    <t>Please Provide Skill Name, Skill Id, VDN</t>
-  </si>
-  <si>
-    <t>Please Provide Skill Name, Skill Id</t>
-  </si>
-  <si>
-    <t>Please Provide VDN</t>
-  </si>
-  <si>
-    <t>VoiceSkill1</t>
-  </si>
-  <si>
-    <t>Exp Err Msg 2</t>
-  </si>
-  <si>
-    <t>Duplicate SkillName</t>
-  </si>
-  <si>
-    <t>Duplicate SkillId</t>
-  </si>
-  <si>
-    <t>90002</t>
-  </si>
-  <si>
-    <t>ChatSkill2</t>
-  </si>
-  <si>
-    <t>Update Skill Name</t>
-  </si>
-  <si>
-    <t>CallBackSkill3</t>
-  </si>
-  <si>
-    <t>Update VDN</t>
-  </si>
-  <si>
-    <t>90009</t>
-  </si>
-  <si>
-    <t>VoiceSkill4</t>
-  </si>
-  <si>
-    <t>Select VDN,
+  FROM[AGT_SPEED_DIAL]</t>
+  </si>
+  <si>
+    <t>Please Provide Channel, Skill Name, Skill Id, VDN</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>Please Provide Channel, Skill Name, Skill Id</t>
+  </si>
+  <si>
+    <t>textchat</t>
+  </si>
+  <si>
+    <t>ChatSkill11</t>
+  </si>
+  <si>
+    <t>ChatSkill4</t>
+  </si>
+  <si>
+    <t>Select Channel,VDN,
   SkillName as 'Skill Name',
   SkillID as 'Skill Id',
   LAST_CHANGED_ON as 'Last Changed On',
   LAST_CHANGED_BY as 'Last Changed By'
- FROM [Product_OCM].[dbo].[AGT_Favourite_Voice_Skills]</t>
-  </si>
-  <si>
-    <t>Inc Agt Ext</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>TwitterPost</t>
-  </si>
-  <si>
-    <t>IndoChatSkill</t>
-  </si>
-  <si>
-    <t>80001</t>
-  </si>
-  <si>
-    <t>80002</t>
-  </si>
-  <si>
-    <t>Testt</t>
-  </si>
-  <si>
-    <t>80003</t>
+ FROM [AGT_Favourite_Voice_Skills]</t>
+  </si>
+  <si>
+    <t>VoiceSkill14</t>
   </si>
 </sst>
 </file>
@@ -542,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,7 +566,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +729,7 @@
         <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
         <v>28</v>
@@ -740,7 +752,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -764,7 +776,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>8</v>
@@ -788,7 +800,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -831,7 +843,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -870,7 +882,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -976,8 +988,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,12 +1004,12 @@
     </row>
     <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1041,141 +1053,167 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="4" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>62</v>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1186,132 +1224,149 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>37</v>
+      <c r="C2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
       <c r="G2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1324,7 +1379,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1390,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -1346,7 +1401,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
@@ -1357,7 +1412,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>33</v>
@@ -1365,7 +1420,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>33</v>
@@ -1373,7 +1428,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>

--- a/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="ConsulCreate" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,11 @@
     <sheet name="BlindDelete" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
   <si>
     <t>Query</t>
   </si>
@@ -233,6 +232,15 @@
   </si>
   <si>
     <t>VoiceSkill14</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t>santosh</t>
   </si>
 </sst>
 </file>
@@ -294,6 +302,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -554,7 +565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -563,10 +574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +589,7 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -592,7 +603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -607,7 +618,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -621,7 +632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -635,7 +646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -646,7 +657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -660,7 +671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -674,7 +685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -685,10 +696,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -697,7 +719,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -741,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -764,7 +786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -788,7 +810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -812,7 +834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -831,7 +853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -852,7 +874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -871,7 +893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -891,10 +913,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -903,7 +921,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1048576"/>
@@ -916,7 +934,7 @@
     <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -933,7 +951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -944,7 +962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -953,7 +971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -962,7 +980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -971,13 +989,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -988,7 +1005,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1053,7 +1070,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -1065,7 +1082,7 @@
     <col min="4" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1082,7 +1099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1093,7 +1110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1107,7 +1124,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1122,7 +1139,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1136,7 +1153,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1153,7 +1170,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1170,7 +1187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1181,7 +1198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1192,7 +1209,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>51</v>
       </c>
@@ -1200,7 +1217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>52</v>
       </c>
@@ -1208,7 +1225,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -1224,7 +1241,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -1240,7 +1257,7 @@
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1266,7 +1283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -1292,7 +1309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -1315,7 +1332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -1337,7 +1354,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1345,7 +1362,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1353,7 +1370,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1361,7 +1378,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1376,7 +1393,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1388,7 +1405,7 @@
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1399,7 +1416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1410,7 +1427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1418,7 +1435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1426,7 +1443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1434,9 +1451,6 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConsulCreate" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="BlindDelete" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K18"/>
 </workbook>
 </file>
 
@@ -576,7 +577,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -923,7 +924,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="ConsulCreate" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,11 @@
     <sheet name="BlindDelete" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
   <si>
     <t>Query</t>
   </si>
@@ -242,6 +241,18 @@
   </si>
   <si>
     <t>santosh</t>
+  </si>
+  <si>
+    <t>VideoSkill2</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Skill1</t>
   </si>
 </sst>
 </file>
@@ -577,7 +588,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -924,7 +935,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -1071,10 +1082,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,6 +1243,26 @@
       </c>
       <c r="C12" s="4" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="14840" windowHeight="3190" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ConsulCreate" sheetId="3" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <sheet name="BlindDelete" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:F11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="75">
   <si>
     <t>Query</t>
   </si>
@@ -253,6 +254,9 @@
   </si>
   <si>
     <t>Skill1</t>
+  </si>
+  <si>
+    <t>Adamd</t>
   </si>
 </sst>
 </file>
@@ -577,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,16 +592,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -685,7 +689,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -697,7 +701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -708,17 +712,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -734,16 +738,18 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -865,7 +871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -886,7 +892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -905,7 +911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -939,11 +945,11 @@
       <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="28.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1021,12 +1027,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="93.7109375" customWidth="1"/>
+    <col min="1" max="1" width="93.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1061,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1084,13 +1090,13 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
     <col min="4" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1165,7 +1171,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>51</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>52</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>70</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>72</v>
       </c>
@@ -1279,14 +1285,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1431,10 +1437,10 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="14840" windowHeight="3190" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ConsulCreate" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="BlindDelete" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F11"/>
+  <oleSize ref="A1:M9"/>
 </workbook>
 </file>
 
@@ -581,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -596,16 +596,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -634,7 +634,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -662,7 +662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -673,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -687,7 +687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -701,7 +701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -712,17 +712,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -741,18 +741,18 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -804,7 +804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -828,7 +828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -852,7 +852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -871,7 +871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -892,7 +892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -911,7 +911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -945,11 +945,11 @@
       <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="5" max="5" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1027,12 +1027,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.7265625" customWidth="1"/>
+    <col min="1" max="1" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1061,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1090,17 +1090,17 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="4" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>51</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>52</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>70</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>72</v>
       </c>
@@ -1281,18 +1281,18 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.54296875" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
-    <col min="8" max="8" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1437,10 +1437,10 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="ConsulCreate" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="BlindDelete" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M9"/>
+  <oleSize ref="A1:M32"/>
 </workbook>
 </file>
 
@@ -592,7 +592,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -634,7 +634,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -662,7 +662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -673,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -687,7 +687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -804,7 +804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -828,7 +828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -852,7 +852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -942,7 +942,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1281,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="ConsulCreate" sheetId="3" r:id="rId1"/>
-    <sheet name="ConsulEdit" sheetId="2" r:id="rId2"/>
-    <sheet name="ConsulDelete" sheetId="4" r:id="rId3"/>
-    <sheet name="Queries" sheetId="5" r:id="rId4"/>
-    <sheet name="TMAC" sheetId="6" r:id="rId5"/>
-    <sheet name="BlindCreate" sheetId="7" r:id="rId6"/>
+    <sheet name="BlindCreate" sheetId="7" r:id="rId1"/>
+    <sheet name="TMAC" sheetId="6" r:id="rId2"/>
+    <sheet name="Queries" sheetId="5" r:id="rId3"/>
+    <sheet name="ConsulDelete" sheetId="4" r:id="rId4"/>
+    <sheet name="ConsulEdit" sheetId="2" r:id="rId5"/>
+    <sheet name="ConsulCreate" sheetId="3" r:id="rId6"/>
     <sheet name="BlindEdit" sheetId="8" r:id="rId7"/>
     <sheet name="BlindDelete" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M32"/>
+  <oleSize ref="A1:O24"/>
 </workbook>
 </file>
 
@@ -589,142 +589,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G11"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="4" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -734,201 +780,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I8"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E7"/>
@@ -1018,33 +927,203 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:A3"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1052,223 +1131,144 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="4" max="5" width="43" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>60</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>60</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BlindCreate" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="BlindDelete" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O24"/>
+  <oleSize ref="A1:I14"/>
 </workbook>
 </file>
 
@@ -816,8 +816,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +932,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BlindCreate" sheetId="7" r:id="rId1"/>
-    <sheet name="TMAC" sheetId="6" r:id="rId2"/>
-    <sheet name="Queries" sheetId="5" r:id="rId3"/>
-    <sheet name="ConsulDelete" sheetId="4" r:id="rId4"/>
+    <sheet name="TMAC" sheetId="6" r:id="rId1"/>
+    <sheet name="Queries" sheetId="5" r:id="rId2"/>
+    <sheet name="ConsulDelete" sheetId="4" r:id="rId3"/>
+    <sheet name="ConsulCreate" sheetId="3" r:id="rId4"/>
     <sheet name="ConsulEdit" sheetId="2" r:id="rId5"/>
-    <sheet name="ConsulCreate" sheetId="3" r:id="rId6"/>
+    <sheet name="BlindCreate" sheetId="7" r:id="rId6"/>
     <sheet name="BlindEdit" sheetId="8" r:id="rId7"/>
     <sheet name="BlindDelete" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I14"/>
+  <oleSize ref="A1:E10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="77">
   <si>
     <t>Query</t>
   </si>
@@ -51,16 +51,7 @@
     <t>Voice</t>
   </si>
   <si>
-    <t>Please provide a valid Name</t>
-  </si>
-  <si>
     <t>Chat</t>
-  </si>
-  <si>
-    <t>Please provide a valid Value</t>
-  </si>
-  <si>
-    <t>Please provide a valid Type</t>
   </si>
   <si>
     <t/>
@@ -218,9 +209,6 @@
     <t>textchat</t>
   </si>
   <si>
-    <t>ChatSkill11</t>
-  </si>
-  <si>
     <t>ChatSkill4</t>
   </si>
   <si>
@@ -257,6 +245,24 @@
   </si>
   <si>
     <t>Adamd</t>
+  </si>
+  <si>
+    <t>ChatSkill1</t>
+  </si>
+  <si>
+    <t>Please Provide Name</t>
+  </si>
+  <si>
+    <t>Please Provide Agent Extension</t>
+  </si>
+  <si>
+    <t>Please Provide Type</t>
+  </si>
+  <si>
+    <t>Update Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Channel</t>
   </si>
 </sst>
 </file>
@@ -581,204 +587,13 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="4" max="5" width="43" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B2"/>
@@ -811,13 +626,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,12 +647,12 @@
     </row>
     <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -845,13 +660,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,13 +681,13 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -880,40 +695,50 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -921,6 +746,151 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -933,7 +903,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,25 +922,25 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -980,150 +950,187 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1133,141 +1140,187 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G11"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="4" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1279,149 +1332,165 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1431,63 +1500,105 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
+++ b/ocms/src/test/resources/TestData/TmacTransferListData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA99852A-4F75-4448-9D8E-39768FF506FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMAC" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,11 @@
     <sheet name="BlindDelete" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="76">
   <si>
     <t>Query</t>
   </si>
@@ -184,91 +184,88 @@
   </si>
   <si>
     <t>80003</t>
+  </si>
+  <si>
+    <t>Please Provide Channel, Skill Name, Skill Id, VDN</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>Please Provide Channel, Skill Name, Skill Id</t>
+  </si>
+  <si>
+    <t>textchat</t>
+  </si>
+  <si>
+    <t>ChatSkill4</t>
+  </si>
+  <si>
+    <t>VoiceSkill14</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t>santosh</t>
+  </si>
+  <si>
+    <t>VideoSkill2</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Skill1</t>
+  </si>
+  <si>
+    <t>Adamd</t>
+  </si>
+  <si>
+    <t>ChatSkill1</t>
+  </si>
+  <si>
+    <t>Please Provide Name</t>
+  </si>
+  <si>
+    <t>Please Provide Agent Extension</t>
+  </si>
+  <si>
+    <t>Please Provide Type</t>
+  </si>
+  <si>
+    <t>Update Channel</t>
   </si>
   <si>
     <t>SELECT Type,
   Value as 'Agent Extension',
-  LAST_CHANGED_ON as 'Last Changed On',
+  REPLACE(LAST_CHANGED_ON,'-','/') as 'Last Changed On',
   LAST_CHANGED_BY as 'Last Changed By',
   Name
   FROM[AGT_SPEED_DIAL]</t>
   </si>
   <si>
-    <t>Please Provide Channel, Skill Name, Skill Id, VDN</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>voice</t>
-  </si>
-  <si>
-    <t>Please Provide Channel, Skill Name, Skill Id</t>
-  </si>
-  <si>
-    <t>textchat</t>
-  </si>
-  <si>
-    <t>ChatSkill4</t>
-  </si>
-  <si>
     <t>Select Channel,VDN,
   SkillName as 'Skill Name',
   SkillID as 'Skill Id',
-  LAST_CHANGED_ON as 'Last Changed On',
+   REPLACE(LAST_CHANGED_ON,'-','/') as 'Last Changed On',
   LAST_CHANGED_BY as 'Last Changed By'
- FROM [AGT_Favourite_Voice_Skills]</t>
-  </si>
-  <si>
-    <t>VoiceSkill14</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>Dept</t>
-  </si>
-  <si>
-    <t>santosh</t>
-  </si>
-  <si>
-    <t>VideoSkill2</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Skill1</t>
-  </si>
-  <si>
-    <t>Adamd</t>
-  </si>
-  <si>
-    <t>ChatSkill1</t>
-  </si>
-  <si>
-    <t>Please Provide Name</t>
-  </si>
-  <si>
-    <t>Please Provide Agent Extension</t>
-  </si>
-  <si>
-    <t>Please Provide Type</t>
-  </si>
-  <si>
-    <t>Update Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Channel</t>
+ FROM [AGT_Favourite_Voice_Skills] Order By [Skill Name] Asc;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,14 +584,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -602,9 +599,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -612,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -627,32 +624,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="93.7109375" customWidth="1"/>
+    <col min="1" max="1" width="93.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -661,7 +658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -669,14 +666,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -693,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -704,7 +701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -713,7 +710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -727,7 +724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -741,10 +738,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
     </row>
   </sheetData>
@@ -753,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -761,16 +758,16 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -784,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -795,11 +792,11 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -810,10 +807,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -824,10 +821,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -838,7 +835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -852,9 +849,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -866,7 +863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -877,19 +874,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -906,18 +903,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -946,7 +943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -975,7 +972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1033,7 +1030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1057,7 +1054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1083,7 +1080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +1104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1139,23 +1136,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
     <col min="4" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -1170,7 +1167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1178,12 +1175,12 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>36</v>
@@ -1195,9 +1192,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -1210,9 +1207,9 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>36</v>
@@ -1221,12 +1218,12 @@
         <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>36</v>
@@ -1241,9 +1238,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>36</v>
@@ -1258,29 +1255,29 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
         <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>48</v>
       </c>
@@ -1288,7 +1285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>49</v>
       </c>
@@ -1296,7 +1293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>52</v>
       </c>
@@ -1304,24 +1301,24 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -1338,17 +1335,17 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="3" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1356,10 +1353,10 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
         <v>41</v>
@@ -1377,7 +1374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
@@ -1385,13 +1382,13 @@
         <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>33</v>
@@ -1406,7 +1403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -1414,13 +1411,13 @@
         <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>33</v>
@@ -1432,7 +1429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
@@ -1440,13 +1437,13 @@
         <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>43</v>
@@ -1457,7 +1454,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1466,7 +1463,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1475,7 +1472,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1484,7 +1481,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1498,23 +1495,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1525,15 +1522,15 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -1542,61 +1539,61 @@
         <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
